--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:32:50+00:00</t>
+    <t>2025-10-16T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -597,7 +597,7 @@
     <t>HealthcareService.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-location-incident)
+    <t xml:space="preserve">Reference(https://build.fhir.org/ig/UPM-NTHC/PH-RoadSafetyIG/StructureDefinition/rs-incident-location-incident)
 </t>
   </si>
   <si>
@@ -1367,7 +1367,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="81.921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T10:13:43+00:00</t>
+    <t>2025-10-16T12:46:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T12:46:03+00:00</t>
+    <t>2025-10-18T06:53:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T02:11:18+00:00</t>
+    <t>2025-10-22T06:37:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T06:37:55+00:00</t>
+    <t>2025-10-22T07:39:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety HealthcareService</t>
+    <t>RS HealthcareService</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T07:39:41+00:00</t>
+    <t>2025-10-24T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>RS HealthcareService</t>
+    <t>Road Safety HealthcareService</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T06:46:00+00:00</t>
+    <t>2025-10-24T16:06:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T16:06:58+00:00</t>
+    <t>2025-10-25T04:52:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-25T04:52:41+00:00</t>
+    <t>2025-10-26T07:34:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Road Safety HealthcareService</t>
+    <t>RS HealthcareService</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-26T07:34:36+00:00</t>
+    <t>2025-10-27T01:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:54:31+00:00</t>
+    <t>2025-10-27T01:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T01:56:04+00:00</t>
+    <t>2025-10-28T15:04:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:04:35+00:00</t>
+    <t>2025-10-28T15:40:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:40:43+00:00</t>
+    <t>2025-10-28T15:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:55:35+00:00</t>
+    <t>2025-10-28T23:57:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T23:57:44+00:00</t>
+    <t>2025-10-29T00:11:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:11:30+00:00</t>
+    <t>2025-10-29T00:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T00:33:44+00:00</t>
+    <t>2025-10-29T01:19:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T01:19:27+00:00</t>
+    <t>2025-10-29T02:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:00:22+00:00</t>
+    <t>2025-10-29T02:25:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T02:25:56+00:00</t>
+    <t>2025-10-29T03:19:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T03:19:57+00:00</t>
+    <t>2025-10-29T04:24:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T04:24:57+00:00</t>
+    <t>2025-10-29T05:09:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:09:17+00:00</t>
+    <t>2025-10-29T05:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:13:56+00:00</t>
+    <t>2025-10-29T05:50:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T05:50:12+00:00</t>
+    <t>2025-10-29T13:28:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T13:28:47+00:00</t>
+    <t>2025-10-29T15:51:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:51:20+00:00</t>
+    <t>2025-10-30T01:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T01:53:15+00:00</t>
+    <t>2025-10-30T02:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T02:40:54+00:00</t>
+    <t>2025-10-30T03:27:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T03:27:09+00:00</t>
+    <t>2025-10-30T05:39:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T05:39:55+00:00</t>
+    <t>2025-10-31T16:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-31T16:32:57+00:00</t>
+    <t>2025-11-01T02:32:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T02:32:07+00:00</t>
+    <t>2025-11-01T03:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:00:46+00:00</t>
+    <t>2025-11-01T03:08:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T03:08:11+00:00</t>
+    <t>2025-11-01T11:24:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-01T11:24:55+00:00</t>
+    <t>2025-11-03T06:02:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T06:02:43+00:00</t>
+    <t>2025-11-03T09:29:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T09:29:05+00:00</t>
+    <t>2025-11-04T05:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T05:19:01+00:00</t>
+    <t>2025-11-05T05:21:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T05:21:38+00:00</t>
+    <t>2025-11-06T11:55:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T11:55:20+00:00</t>
+    <t>2025-11-07T10:27:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T10:27:49+00:00</t>
+    <t>2025-11-08T13:50:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-08T13:50:02+00:00</t>
+    <t>2025-11-09T01:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T01:35:45+00:00</t>
+    <t>2025-11-09T06:04:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T06:04:07+00:00</t>
+    <t>2025-11-09T07:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T07:15:59+00:00</t>
+    <t>2025-11-09T10:56:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T10:56:11+00:00</t>
+    <t>2025-11-09T12:21:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:21:17+00:00</t>
+    <t>2025-11-09T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-09T12:30:11+00:00</t>
+    <t>2025-11-12T06:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:38:24+00:00</t>
+    <t>2025-11-12T06:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T06:39:32+00:00</t>
+    <t>2025-11-12T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-12T08:01:17+00:00</t>
+    <t>2025-11-13T05:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:16:01+00:00</t>
+    <t>2025-11-13T05:42:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T05:42:41+00:00</t>
+    <t>2025-11-13T06:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:09:51+00:00</t>
+    <t>2025-11-13T06:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-13T06:07:07+00:00</t>
+    <t>2025-11-14T06:33:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T06:33:14+00:00</t>
+    <t>2025-11-16T14:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-healthcare-service.xlsx
+++ b/StructureDefinition-rs-healthcare-service.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-16T14:11:53+00:00</t>
+    <t>2025-11-16T14:40:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
